--- a/database/test.xlsx
+++ b/database/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\web_dienthoai\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98A58C5-7BB9-4A72-9497-B37F946B9FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4948E2-D964-460E-8952-554754D3E34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{71B527CB-E783-4579-9DE0-219B63F5066C}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,7 +700,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -781,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -792,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
